--- a/other_dataset_test/humaneval/result/codegeex4-all-9b_pass1.xlsx
+++ b/other_dataset_test/humaneval/result/codegeex4-all-9b_pass1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E170"/>
+  <dimension ref="A1:E165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,9 +489,19 @@
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Traceback (most recent call last):
+  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\pass1\1_1.py", line 45, in &lt;module&gt;
+    check(candidate)
+  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\pass1\1_1.py", line 19, in check
+    assert candidate('( ) (( )) (( )( ))') == ['()', '(())', '(()())']
+AssertionError
+</t>
+        </is>
+      </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -523,9 +533,19 @@
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Traceback (most recent call last):
+  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\pass1\100_1.py", line 35, in &lt;module&gt;
+    check(candidate)
+  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\pass1\100_1.py", line 4, in check
+    assert candidate(3) == [3, 5, 7], "Test 3"
+AssertionError: Test 3
+</t>
+        </is>
+      </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -557,80 +577,88 @@
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>103</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t xml:space="preserve">Traceback (most recent call last):
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\103_1.py", line 35, in &lt;module&gt;
+  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\pass1\102_1.py", line 33, in &lt;module&gt;
     check(candidate)
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\103_1.py", line 4, in check
-    assert candidate(3) == [3, 5, 7], "Test 3"
-AssertionError: Test 3
-</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>105</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\105_1.py", line 33, in &lt;module&gt;
-    check(candidate)
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\105_1.py", line 4, in check
+  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\pass1\102_1.py", line 4, in check
     assert candidate(12, 15) == 14
 AssertionError
 </t>
         </is>
       </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Traceback (most recent call last):
+  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\pass1\104_1.py", line 28, in &lt;module&gt;
+    check(candidate)
+  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\pass1\104_1.py", line 4, in check
+    assert candidate([15, 33, 1422, 1]) == [1, 15, 33]
+  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\pass1\104_1.py", line 26, in unique_digits
+    return sorted([n for n in x if not has_even_digit(n)])
+  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\pass1\104_1.py", line 26, in &lt;listcomp&gt;
+    return sorted([n for n in x if not has_even_digit(n)])
+  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\pass1\104_1.py", line 25, in has_even_digit
+    return any(digit % 2 == 0 for digit in str(n))
+  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\pass1\104_1.py", line 25, in &lt;genexpr&gt;
+    return any(digit % 2 == 0 for digit in str(n))
+TypeError: not all arguments converted during string formatting
+</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -662,27 +690,9 @@
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\107_1.py", line 28, in &lt;module&gt;
-    check(candidate)
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\107_1.py", line 4, in check
-    assert candidate([15, 33, 1422, 1]) == [1, 15, 33]
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\107_1.py", line 26, in unique_digits
-    return sorted([n for n in x if not has_even_digit(n)])
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\107_1.py", line 26, in &lt;listcomp&gt;
-    return sorted([n for n in x if not has_even_digit(n)])
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\107_1.py", line 25, in has_even_digit
-    return any(digit % 2 == 0 for digit in str(n))
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\107_1.py", line 25, in &lt;genexpr&gt;
-    return any(digit % 2 == 0 for digit in str(n))
-TypeError: not all arguments converted during string formatting
-</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -697,9 +707,19 @@
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Traceback (most recent call last):
+  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\pass1\108_1.py", line 31, in &lt;module&gt;
+    check(candidate)
+  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\pass1\108_1.py", line 5, in check
+    assert candidate([-1, -2, 0]) == 0
+AssertionError
+</t>
+        </is>
+      </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -765,19 +785,9 @@
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\111_1.py", line 31, in &lt;module&gt;
-    check(candidate)
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\111_1.py", line 5, in check
-    assert candidate([-1, -2, 0]) == 0
-AssertionError
-</t>
-        </is>
-      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -843,9 +853,19 @@
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Traceback (most recent call last):
+  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\pass1\115_1.py", line 57, in &lt;module&gt;
+    check(candidate)
+  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\pass1\115_1.py", line 6, in check
+    assert candidate([[0,0,1,0], [0,1,0,0], [1,1,1,1]], 1) == 6, "Error"
+AssertionError: Error
+</t>
+        </is>
+      </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -897,11 +917,11 @@
       <c r="D24" t="inlineStr">
         <is>
           <t xml:space="preserve">Traceback (most recent call last):
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\118_1.py", line 57, in &lt;module&gt;
+  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\pass1\118_1.py", line 42, in &lt;module&gt;
     check(candidate)
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\118_1.py", line 6, in check
-    assert candidate([[0,0,1,0], [0,1,0,0], [1,1,1,1]], 1) == 6, "Error"
-AssertionError: Error
+  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\pass1\118_1.py", line 4, in check
+    assert candidate("yogurt") == "u"
+AssertionError
 </t>
         </is>
       </c>
@@ -972,19 +992,9 @@
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\121_1.py", line 42, in &lt;module&gt;
-    check(candidate)
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\121_1.py", line 4, in check
-    assert candidate("yogurt") == "u"
-AssertionError
-</t>
-        </is>
-      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1016,9 +1026,19 @@
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Traceback (most recent call last):
+  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\pass1\123_1.py", line 38, in &lt;module&gt;
+    check(candidate)
+  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\pass1\123_1.py", line 4, in check
+    assert candidate(14) == [1, 5, 7, 11, 13, 17]
+AssertionError
+</t>
+        </is>
+      </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1070,33 +1090,43 @@
       <c r="D33" t="inlineStr">
         <is>
           <t xml:space="preserve">Traceback (most recent call last):
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\126_1.py", line 38, in &lt;module&gt;
+  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\pass1\126_1.py", line 38, in &lt;module&gt;
     check(candidate)
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\126_1.py", line 4, in check
-    assert candidate(14) == [1, 5, 7, 11, 13, 17]
+  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\pass1\126_1.py", line 17, in check
+    assert candidate([1, 2, 2, 3, 3, 4]) == True, "This prints if this assert fails 7 (good for debugging!)"
+AssertionError: This prints if this assert fails 7 (good for debugging!)
+</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Traceback (most recent call last):
+  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\pass1\127_1.py", line 53, in &lt;module&gt;
+    check(candidate)
+  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\pass1\127_1.py", line 5, in check
+    assert candidate((-1, 1), (0, 4)) == "NO"
 AssertionError
 </t>
         </is>
       </c>
-      <c r="E33" t="n">
+      <c r="E34" t="n">
         <v>1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>127</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1128,19 +1158,9 @@
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\129_1.py", line 38, in &lt;module&gt;
-    check(candidate)
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\129_1.py", line 17, in check
-    assert candidate([1, 2, 2, 3, 3, 4]) == True, "This prints if this assert fails 7 (good for debugging!)"
-AssertionError: This prints if this assert fails 7 (good for debugging!)
-</t>
-        </is>
-      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1175,11 +1195,13 @@
       <c r="D38" t="inlineStr">
         <is>
           <t xml:space="preserve">Traceback (most recent call last):
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\130_1.py", line 53, in &lt;module&gt;
+  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\pass1\130_1.py", line 46, in &lt;module&gt;
     check(candidate)
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\130_1.py", line 5, in check
-    assert candidate((-1, 1), (0, 4)) == "NO"
-AssertionError
+  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\pass1\130_1.py", line 5, in check
+    assert candidate(3) == [1, 3, 2.0, 8.0]
+  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\pass1\130_1.py", line 43, in tri
+    my_list.append(my_list[i - 1] + my_list[i - 2] + my_list[i + 1])
+IndexError: list index out of range
 </t>
         </is>
       </c>
@@ -1216,80 +1238,88 @@
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>133</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t xml:space="preserve">Traceback (most recent call last):
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\133_1.py", line 46, in &lt;module&gt;
+  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\pass1\132_1.py", line 44, in &lt;module&gt;
     check(candidate)
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\133_1.py", line 5, in check
-    assert candidate(3) == [1, 3, 2.0, 8.0]
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\133_1.py", line 43, in tri
-    my_list.append(my_list[i - 1] + my_list[i - 2] + my_list[i + 1])
-IndexError: list index out of range
-</t>
-        </is>
-      </c>
-      <c r="E41" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\135_1.py", line 44, in &lt;module&gt;
-    check(candidate)
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\135_1.py", line 6, in check
+  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\pass1\132_1.py", line 6, in check
     assert candidate('[][]') == False
 AssertionError
 </t>
         </is>
       </c>
+      <c r="E40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Traceback (most recent call last):
+  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\pass1\134_1.py", line 37, in &lt;module&gt;
+    check(candidate)
+  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\pass1\134_1.py", line 7, in check
+    assert candidate("A") == True
+AssertionError
+</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Traceback (most recent call last):
+  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\pass1\135_1.py", line 27, in &lt;module&gt;
+    check(candidate)
+  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\pass1\135_1.py", line 7, in check
+    assert candidate([4,8,5,7,3])==4
+AssertionError
+</t>
+        </is>
+      </c>
       <c r="E43" t="n">
         <v>1</v>
       </c>
@@ -1323,44 +1353,34 @@
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr">
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
         <is>
           <t xml:space="preserve">Traceback (most recent call last):
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\137_1.py", line 37, in &lt;module&gt;
+  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\pass1\138_1.py", line 19, in &lt;module&gt;
     check(candidate)
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\137_1.py", line 7, in check
-    assert candidate("A") == True
+  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\pass1\138_1.py", line 6, in check
+    assert candidate(11) == False
 AssertionError
 </t>
         </is>
       </c>
-      <c r="E45" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>138</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\138_1.py", line 27, in &lt;module&gt;
-    check(candidate)
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\138_1.py", line 7, in check
-    assert candidate([4,8,5,7,3])==4
-AssertionError
-</t>
-        </is>
-      </c>
       <c r="E46" t="n">
         <v>1</v>
       </c>
@@ -1377,9 +1397,19 @@
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Traceback (most recent call last):
+  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\pass1\139_1.py", line 28, in &lt;module&gt;
+    check(candidate)
+  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\pass1\139_1.py", line 4, in check
+    assert candidate(4) == 288, "Test 4"
+AssertionError: Test 4
+</t>
+        </is>
+      </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1428,19 +1458,9 @@
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\141_1.py", line 19, in &lt;module&gt;
-    check(candidate)
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\141_1.py", line 6, in check
-    assert candidate(11) == False
-AssertionError
-</t>
-        </is>
-      </c>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1455,19 +1475,9 @@
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\142_1.py", line 28, in &lt;module&gt;
-    check(candidate)
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\142_1.py", line 4, in check
-    assert candidate(4) == 288, "Test 4"
-AssertionError: Test 4
-</t>
-        </is>
-      </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1516,9 +1526,19 @@
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Traceback (most recent call last):
+  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\pass1\145_1.py", line 32, in &lt;module&gt;
+    check(candidate)
+  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\pass1\145_1.py", line 4, in check
+    assert candidate([1, 11, -1, -11, -12]) == [-1, -11, 1, -12, 11]
+AssertionError
+</t>
+        </is>
+      </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1567,36 +1587,36 @@
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr">
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
         <is>
           <t xml:space="preserve">Traceback (most recent call last):
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\148_1.py", line 32, in &lt;module&gt;
+  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\pass1\149_1.py", line 32, in &lt;module&gt;
     check(candidate)
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\148_1.py", line 4, in check
-    assert candidate([1, 11, -1, -11, -12]) == [-1, -11, 1, -12, 11]
+  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\pass1\149_1.py", line 12, in check
+    assert candidate(['aaaa', 'bbbb', 'dd', 'cc']) == ["cc", "dd", "aaaa", "bbbb"]
 AssertionError
 </t>
         </is>
       </c>
-      <c r="E57" t="n">
+      <c r="E58" t="n">
         <v>1</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>149</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -1662,19 +1682,9 @@
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\152_1.py", line 32, in &lt;module&gt;
-    check(candidate)
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\152_1.py", line 12, in check
-    assert candidate(['aaaa', 'bbbb', 'dd', 'cc']) == ["cc", "dd", "aaaa", "bbbb"]
-AssertionError
-</t>
-        </is>
-      </c>
+      <c r="D62" t="inlineStr"/>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -1706,9 +1716,19 @@
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Traceback (most recent call last):
+  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\pass1\154_1.py", line 30, in &lt;module&gt;
+    check(candidate)
+  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\pass1\154_1.py", line 9, in check
+    assert  candidate("yello","ell") == True , "test #1"
+AssertionError: test #1
+</t>
+        </is>
+      </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -1723,9 +1743,19 @@
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Traceback (most recent call last):
+  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\pass1\155_1.py", line 36, in &lt;module&gt;
+    check(candidate)
+  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\pass1\155_1.py", line 11, in check
+    assert candidate(0) == (1, 0)
+AssertionError
+</t>
+        </is>
+      </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -1757,19 +1787,9 @@
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\157_1.py", line 30, in &lt;module&gt;
-    check(candidate)
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\157_1.py", line 9, in check
-    assert  candidate("yello","ell") == True , "test #1"
-AssertionError: test #1
-</t>
-        </is>
-      </c>
+      <c r="D67" t="inlineStr"/>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -1784,19 +1804,9 @@
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\158_1.py", line 36, in &lt;module&gt;
-    check(candidate)
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\158_1.py", line 11, in check
-    assert candidate(0) == (1, 0)
-AssertionError
-</t>
-        </is>
-      </c>
+      <c r="D68" t="inlineStr"/>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -1896,15 +1906,25 @@
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Traceback (most recent call last):
+  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\pass1\163_1.py", line 29, in &lt;module&gt;
+    check(candidate)
+  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\pass1\163_1.py", line 4, in check
+    assert candidate(2, 10) == [2, 4, 6, 8], "Test 1"
+AssertionError: Test 1
+</t>
+        </is>
+      </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1921,7 +1941,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1938,7 +1958,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1950,11 +1970,15 @@
       <c r="D77" t="inlineStr">
         <is>
           <t xml:space="preserve">Traceback (most recent call last):
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\166_1.py", line 29, in &lt;module&gt;
+  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\pass1\19_1.py", line 41, in &lt;module&gt;
     check(candidate)
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\166_1.py", line 4, in check
-    assert candidate(2, 10) == [2, 4, 6, 8], "Test 1"
-AssertionError: Test 1
+  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\pass1\19_1.py", line 10, in check
+    assert candidate('') == ''
+  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\pass1\19_1.py", line 38, in sort_numbers
+    numbers_list.sort(key=lambda x: value_map[x])
+  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\pass1\19_1.py", line 38, in &lt;lambda&gt;
+    numbers_list.sort(key=lambda x: value_map[x])
+KeyError: ''
 </t>
         </is>
       </c>
@@ -1965,7 +1989,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1982,7 +2006,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1991,25 +2015,15 @@
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\168_1.py", line 45, in &lt;module&gt;
-    check(candidate)
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\168_1.py", line 19, in check
-    assert candidate('( ) (( )) (( )( ))') == ['()', '(())', '(()())']
-AssertionError
-</t>
-        </is>
-      </c>
+      <c r="D79" t="inlineStr"/>
       <c r="E79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2026,7 +2040,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2043,7 +2057,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2060,7 +2074,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2077,7 +2091,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2094,7 +2108,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2111,7 +2125,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2120,29 +2134,15 @@
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\22_1.py", line 41, in &lt;module&gt;
-    check(candidate)
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\22_1.py", line 10, in check
-    assert candidate('') == ''
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\22_1.py", line 38, in sort_numbers
-    numbers_list.sort(key=lambda x: value_map[x])
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\22_1.py", line 38, in &lt;lambda&gt;
-    numbers_list.sort(key=lambda x: value_map[x])
-KeyError: ''
-</t>
-        </is>
-      </c>
+      <c r="D86" t="inlineStr"/>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2159,7 +2159,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2176,7 +2176,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2193,7 +2193,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2210,7 +2210,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2227,7 +2227,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2236,15 +2236,25 @@
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr"/>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Traceback (most recent call last):
+  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\pass1\32_1.py", line 62, in &lt;module&gt;
+    check(candidate)
+  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\pass1\32_1.py", line 20, in check
+    assert math.fabs(poly(coeffs, solution)) &lt; 1e-4
+AssertionError
+</t>
+        </is>
+      </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2261,7 +2271,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2278,7 +2288,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2295,7 +2305,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>36</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -2312,7 +2322,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -2329,7 +2339,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -2346,7 +2356,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -2363,7 +2373,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -2372,25 +2382,15 @@
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\35_1.py", line 62, in &lt;module&gt;
-    check(candidate)
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\35_1.py", line 20, in check
-    assert math.fabs(poly(coeffs, solution)) &lt; 1e-4
-AssertionError
-</t>
-        </is>
-      </c>
+      <c r="D100" t="inlineStr"/>
       <c r="E100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -2407,7 +2407,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>41</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -2424,7 +2424,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>42</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -2441,7 +2441,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>43</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -2458,7 +2458,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -2467,25 +2467,15 @@
         </is>
       </c>
       <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\4_1.py", line 45, in &lt;module&gt;
-    check(candidate)
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\4_1.py", line 19, in check
-    assert candidate('( ) (( )) (( )( ))') == ['()', '(())', '(()())']
-AssertionError
-</t>
-        </is>
-      </c>
+      <c r="D105" t="inlineStr"/>
       <c r="E105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -2502,7 +2492,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>46</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -2511,15 +2501,25 @@
         </is>
       </c>
       <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr"/>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Traceback (most recent call last):
+  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\pass1\46_1.py", line 38, in &lt;module&gt;
+    check(candidate)
+  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\pass1\46_1.py", line 7, in check
+    assert candidate(5) == 4
+AssertionError
+</t>
+        </is>
+      </c>
       <c r="E107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>47</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -2536,7 +2536,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>48</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -2553,7 +2553,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -2570,7 +2570,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -2587,7 +2587,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -2604,7 +2604,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>51</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -2621,7 +2621,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>52</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -2638,7 +2638,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>53</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -2647,42 +2647,42 @@
         </is>
       </c>
       <c r="C115" t="inlineStr"/>
-      <c r="D115" t="inlineStr">
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr">
         <is>
           <t xml:space="preserve">Traceback (most recent call last):
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\49_1.py", line 38, in &lt;module&gt;
+  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\pass1\54_1.py", line 33, in &lt;module&gt;
     check(candidate)
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\49_1.py", line 7, in check
-    assert candidate(5) == 4
+  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\pass1\54_1.py", line 7, in check
+    assert candidate('eabcdzzzz', 'dddzzzzzzzddeddabc') == True
 AssertionError
 </t>
         </is>
       </c>
-      <c r="E115" t="n">
+      <c r="E116" t="n">
         <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr"/>
-      <c r="E116" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>55</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -2699,7 +2699,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>56</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -2716,7 +2716,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>57</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -2733,7 +2733,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>58</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -2750,7 +2750,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>59</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -2767,7 +2767,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -2784,7 +2784,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>60</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -2801,7 +2801,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>61</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -2810,25 +2810,15 @@
         </is>
       </c>
       <c r="C124" t="inlineStr"/>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\57_1.py", line 33, in &lt;module&gt;
-    check(candidate)
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\57_1.py", line 7, in check
-    assert candidate('eabcdzzzz', 'dddzzzzzzzddeddabc') == True
-AssertionError
-</t>
-        </is>
-      </c>
+      <c r="D124" t="inlineStr"/>
       <c r="E124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>62</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -2845,7 +2835,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>63</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -2862,7 +2852,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>64</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -2879,7 +2869,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>65</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -2896,7 +2886,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>66</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -2913,7 +2903,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>67</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -2930,7 +2920,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>68</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -2947,7 +2937,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>69</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -2964,7 +2954,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -2981,7 +2971,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>70</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -2998,7 +2988,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -3015,7 +3005,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>72</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -3032,7 +3022,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>73</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -3049,7 +3039,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>74</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -3058,15 +3048,25 @@
         </is>
       </c>
       <c r="C138" t="inlineStr"/>
-      <c r="D138" t="inlineStr"/>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Traceback (most recent call last):
+  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\pass1\74_1.py", line 48, in &lt;module&gt;
+    check(candidate)
+  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\pass1\74_1.py", line 16, in check
+    assert candidate([], ['this']) == []
+AssertionError
+</t>
+        </is>
+      </c>
       <c r="E138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>75</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -3075,15 +3075,25 @@
         </is>
       </c>
       <c r="C139" t="inlineStr"/>
-      <c r="D139" t="inlineStr"/>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Traceback (most recent call last):
+  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\pass1\75_1.py", line 36, in &lt;module&gt;
+    check(candidate)
+  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\pass1\75_1.py", line 5, in check
+    assert candidate(8) == True
+AssertionError
+</t>
+        </is>
+      </c>
       <c r="E139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>76</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -3100,7 +3110,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>77</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -3109,15 +3119,27 @@
         </is>
       </c>
       <c r="C141" t="inlineStr"/>
-      <c r="D141" t="inlineStr"/>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Traceback (most recent call last):
+  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\pass1\77_1.py", line 36, in &lt;module&gt;
+    check(candidate)
+  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\pass1\77_1.py", line 4, in check
+    assert candidate(1) == True, "First test error: " + str(candidate(1))
+  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\pass1\77_1.py", line 31, in iscube
+    for i in range(-abs(a) ** (1/3) + 1, abs(a) ** (1/3) + 1):
+TypeError: 'float' object cannot be interpreted as an integer
+</t>
+        </is>
+      </c>
       <c r="E141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>78</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -3134,7 +3156,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>79</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -3151,7 +3173,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -3168,7 +3190,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -3185,7 +3207,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>81</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -3194,25 +3216,15 @@
         </is>
       </c>
       <c r="C146" t="inlineStr"/>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\77_1.py", line 48, in &lt;module&gt;
-    check(candidate)
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\77_1.py", line 16, in check
-    assert candidate([], ['this']) == []
-AssertionError
-</t>
-        </is>
-      </c>
+      <c r="D146" t="inlineStr"/>
       <c r="E146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>82</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -3221,25 +3233,15 @@
         </is>
       </c>
       <c r="C147" t="inlineStr"/>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\78_1.py", line 36, in &lt;module&gt;
-    check(candidate)
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\78_1.py", line 5, in check
-    assert candidate(8) == True
-AssertionError
-</t>
-        </is>
-      </c>
+      <c r="D147" t="inlineStr"/>
       <c r="E147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>83</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -3256,7 +3258,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>84</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -3273,7 +3275,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>85</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -3282,27 +3284,15 @@
         </is>
       </c>
       <c r="C150" t="inlineStr"/>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\80_1.py", line 36, in &lt;module&gt;
-    check(candidate)
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\80_1.py", line 4, in check
-    assert candidate(1) == True, "First test error: " + str(candidate(1))
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\80_1.py", line 31, in iscube
-    for i in range(-abs(a) ** (1/3) + 1, abs(a) ** (1/3) + 1):
-TypeError: 'float' object cannot be interpreted as an integer
-</t>
-        </is>
-      </c>
+      <c r="D150" t="inlineStr"/>
       <c r="E150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>86</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -3319,7 +3309,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>87</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -3336,7 +3326,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>88</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -3353,7 +3343,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>89</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -3362,15 +3352,25 @@
         </is>
       </c>
       <c r="C154" t="inlineStr"/>
-      <c r="D154" t="inlineStr"/>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Traceback (most recent call last):
+  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\pass1\89_1.py", line 37, in &lt;module&gt;
+    check(candidate)
+  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\pass1\89_1.py", line 4, in check
+    assert candidate('hi') == 'lm', "This prints if this assert fails 1 (good for debugging!)"
+AssertionError: This prints if this assert fails 1 (good for debugging!)
+</t>
+        </is>
+      </c>
       <c r="E154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -3387,7 +3387,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>90</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -3404,7 +3404,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>91</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -3413,15 +3413,25 @@
         </is>
       </c>
       <c r="C157" t="inlineStr"/>
-      <c r="D157" t="inlineStr"/>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Traceback (most recent call last):
+  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\pass1\91_1.py", line 30, in &lt;module&gt;
+    check(candidate)
+  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\pass1\91_1.py", line 5, in check
+    assert candidate("Is the sky blue?") == 0, "Test 2"
+AssertionError: Test 2
+</t>
+        </is>
+      </c>
       <c r="E157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>92</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -3438,7 +3448,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>93</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -3455,7 +3465,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>94</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -3472,7 +3482,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>95</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -3481,15 +3491,29 @@
         </is>
       </c>
       <c r="C161" t="inlineStr"/>
-      <c r="D161" t="inlineStr"/>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Traceback (most recent call last):
+  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\pass1\95_1.py", line 34, in &lt;module&gt;
+    check(candidate)
+  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\pass1\95_1.py", line 6, in check
+    assert candidate({"p":"pineapple", 5:"banana", "a":"apple"}) == False, "Third test error: " + str(candidate({"p":"pineapple", 5:"banana", "a":"apple"}))
+  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\pass1\95_1.py", line 30, in check_dict_case
+    is_lower = all(key.islower() for key in dict.keys())
+  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\pass1\95_1.py", line 30, in &lt;genexpr&gt;
+    is_lower = all(key.islower() for key in dict.keys())
+AttributeError: 'int' object has no attribute 'islower'
+</t>
+        </is>
+      </c>
       <c r="E161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>96</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -3506,7 +3530,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>97</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -3515,25 +3539,15 @@
         </is>
       </c>
       <c r="C163" t="inlineStr"/>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\92_1.py", line 37, in &lt;module&gt;
-    check(candidate)
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\92_1.py", line 4, in check
-    assert candidate('hi') == 'lm', "This prints if this assert fails 1 (good for debugging!)"
-AssertionError: This prints if this assert fails 1 (good for debugging!)
-</t>
-        </is>
-      </c>
+      <c r="D163" t="inlineStr"/>
       <c r="E163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>98</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -3550,7 +3564,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>99</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -3559,117 +3573,8 @@
         </is>
       </c>
       <c r="C165" t="inlineStr"/>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\94_1.py", line 30, in &lt;module&gt;
-    check(candidate)
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\94_1.py", line 5, in check
-    assert candidate("Is the sky blue?") == 0, "Test 2"
-AssertionError: Test 2
-</t>
-        </is>
-      </c>
+      <c r="D165" t="inlineStr"/>
       <c r="E165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr"/>
-      <c r="D166" t="inlineStr"/>
-      <c r="E166" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr"/>
-      <c r="D167" t="inlineStr"/>
-      <c r="E167" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr"/>
-      <c r="D168" t="inlineStr"/>
-      <c r="E168" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr"/>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Traceback (most recent call last):
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\98_1.py", line 34, in &lt;module&gt;
-    check(candidate)
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\98_1.py", line 6, in check
-    assert candidate({"p":"pineapple", 5:"banana", "a":"apple"}) == False, "Third test error: " + str(candidate({"p":"pineapple", 5:"banana", "a":"apple"}))
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\98_1.py", line 30, in check_dict_case
-    is_lower = all(key.islower() for key in dict.keys())
-  File "E:\code\code_back\python_project\RealisticEval-Data\other_dataset_test\humaneval\test\codegeex4-all-9b\98_1.py", line 30, in &lt;genexpr&gt;
-    is_lower = all(key.islower() for key in dict.keys())
-AttributeError: 'int' object has no attribute 'islower'
-</t>
-        </is>
-      </c>
-      <c r="E169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr"/>
-      <c r="D170" t="inlineStr"/>
-      <c r="E170" t="n">
         <v>0</v>
       </c>
     </row>
